--- a/misc/translations/en_fr.xlsx
+++ b/misc/translations/en_fr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,2184 +372,2160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>.acorn data successfully generated!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bienvenue</t>
+          <t>Le fichier .acorn a bien été généré</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>.acorn file saved on server.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Langue</t>
+          <t>Fichier .acorn sauvegardé sur le serveur.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>.acorn not saved.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pays Participants au Projet ACORN</t>
+          <t>Fichier .acorn n'est pas sauvegardé.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What is ACORN?</t>
+          <t>(1/4) Download Clinical data</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qu'est ce qu'ACORN ?</t>
+          <t>(1/4) Télécharger les Données Clinique</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>(2/4) Provide Lab data</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>À Propos</t>
+          <t>(2/4) Fournir des données de laboratoire</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>(3/4) Combine Clinical and Lab data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Connection</t>
+          <t>(3/4) Combiner les données clinique et de laboratoire</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>(4/4) Save .acorn file</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Connection réussie.</t>
+          <t>(4/4) Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>(Optional) Comments:</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>(Optionnel) Commentaires:</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>(To log out, close the app.)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Utilisateur</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mot de passe</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Se connecter</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>To log out, close the app.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Quitter l'application pour se déconnecter.</t>
+          <t>Pays Participants au Projet ACORN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>upload a local acorn file.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>téléverser un fichier acorn.</t>
+          <t>Tous les 'orgname' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gestion des Données</t>
+          <t>Tous les 'patid' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Comment voulez-vous procéder ?</t>
+          <t>Tous les 'specdate' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The REDCap dataset contains data.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Le fichier téléchargé de REDCap contient des données.</t>
+          <t>Tous les 'specdate' sont égales ou antérieures à aujourd'hui.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Les données REDCap sont vides. Merci de contacter l'équipe ACORN.</t>
+          <t>Tous les 'specgroup' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Les colonnes des données REDCap ne correspondent pas. Merci de contacter l'équipe ACORN.</t>
+          <t>Tous les 'specid' sont fournis.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names match.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Les colonnes des données REDCap correspondent.</t>
+          <t>Toutes les dates d'enrôlements de patients avec une HAI se trouvent dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Erreurs critiques avec les données cliniques.</t>
+          <t>Tous les Autres Organismes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clinical data successfully provided.</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Les données clinique ont bien été fournies</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lecture des données de lab.</t>
+          <t>et générer un fichier de suivi des recrutements.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Traitement des données de lab.</t>
+          <t>Tentative de connection.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Traitement des données de lab achevé avec succès !</t>
+          <t>Hémoculture collectée dans les 24 heures d'admission (CAI) / au début des symptômes (HAI)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Création du fichier .acorn</t>
+          <t>Contaminants d'Hémoculture</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
+          <t>Infection du Sang (BSI)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>.acorn data successfully generated!</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Le fichier .acorn a bien été généré</t>
+          <t>L'âge calculé est cohérent avec la catégorie d'âge.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aucun fichier .acorn n'a été chargé.</t>
+          <t>L'âge calculé n'est pas toujours cohérent avec la catégorie d'âge.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>.acorn not saved.</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fichier .acorn n'est pas sauvegardé.</t>
+          <t>Annuler</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pas de connection à internet détecté.</t>
+          <t>L'interprétation des taux et profils AMR doit prêter à caution lorsqu'en présence d'un petit nombre de cas ou d'isolats : les estimations sont alors peu fiable.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tentative de connection.</t>
+          <t>Les résultats cliniques et du jour 28 sont cohérents.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical data not provided</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Données clinique non fournies</t>
+          <t>Pour certains patients décédés, les résultats cliniques et du jour 28 ne sont pas cohérents.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Données de laboratoire non fournies</t>
+          <t>Résultat Clinique</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aucun .acorn n'a été généré</t>
+          <t>Statut des résultats cliniques:</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aucun .acorn n'a été sauvé.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Generate .acorn from clinical and lab data</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Générer .acorn depuis les données clinique et de laboratoire</t>
+          <t>Combiner Susceptible + Intermédiaire</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Load existing .acorn from cloud</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Charger un .acorn depuis un serveur</t>
+          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Load existing .acorn from local file</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Charger un .acorn à partir d'un fichier local</t>
+          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
+          <t>Erreurs critiques avec les données cliniques.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Le premier onglet comprend tous les recrutements téléchargés depuis REDCap (voir table ci-contre). Le second onglet liste tous les éléments potentiellement à corriger.</t>
+          <t>Résultats de culture par type de spécimen</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chargement des données.</t>
+          <t>Gestion des Données</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chargement des données réalisé avec succès.</t>
+          <t>Date d'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Récupération des données depuis le serveur REDcap.</t>
+          <t>Jour 28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
+          <t>Statut au jour 28:</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Problème critique détecté : pas de données ou format de données incorrect sur le serveur REDCap. Merci de rapporter ce message au data manager ACORN. En attendant de trouver une solution, seul les fichiers .acorn existant peuvent être utilisés.</t>
+          <t>Diagnostics à l'Enrôlement</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sauvegarder des données acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Annuler</t>
+          <t>Distribution des Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(Optional) Comments:</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(Optionnel) Commentaires:</t>
+          <t>Télécharger un fichier de suivi des recrutements (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sauvegarder sur serveur</t>
+          <t>Antibiotiques Empiriques Prescris</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nom de fichier:</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
+          <t>Enrôlements par (type de) service</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>.acorn file saved on server.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé sur le serveur.</t>
+          <t>Enrôlements avec hémoculture</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
+          <t>Erreur produite en combinant les données clinique et de laboratoire.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé locallement.</t>
+          <t>Chaque enregistrement D28 (F04) correspond avec exactement un enrôlement de patient (F01).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fichier .acorn sauvegardé locallement. Vous pouvez maintenant explorer les données acorn.</t>
+          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pour plus de sécurité, envisagez une sauvegarde des données sur un serveur.</t>
+          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Choisir le format des données de laboratoire</t>
+          <t>A tout enregistrement d'épisode infectieux (F02) correspond un enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(1/4) Download Clinical data</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>(1/4) Télécharger les Données Clinique</t>
+          <t>Nom de fichier:</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>et générer un fichier de suivi des recrutements.</t>
+          <t>Le premier onglet comprend tous les recrutements téléchargés depuis REDCap (voir table ci-contre). Le second onglet liste tous les éléments potentiellement à corriger.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Obtenir des données depuis REDCap</t>
+          <t>Suivi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(2/4) Provide Lab data</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>(2/4) Fournir des données de laboratoire</t>
+          <t>de cultures avec croissance</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>(3/4) Combine Clinical and Lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>(3/4) Combiner les données clinique et de laboratoire</t>
+          <t>Générer un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sauvegarder un ficher .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Générer un fichier .acorn</t>
+          <t>Création du fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>(4/4) Save .acorn file</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>(4/4) Sauvegarder un ficher .acorn</t>
+          <t>Obtenir des données depuis REDCap</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aperçu</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Date d'Enrôlement</t>
+          <t>Croissance / Pas de croissance</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>HAI point prevalence by type of ward</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montrer par Semaine</t>
+          <t>Prévalence des HAI par service</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Enrôlements avec hémoculture</t>
+          <t>Prévalence des HAI</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Distribution des Enrôlements</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Variables dans la Table:</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Enrôlements par (type de) service</t>
+          <t>Diagnostic de surveillance initial et final</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Montrer la Répartition par Service</t>
+          <t>Isolats</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Distribution des ages des patients</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Diagnostics à l'Enrôlement</t>
+          <t>Cela peut prendre plusieurs minutes. Cette fenêtre se fermera automatiquement.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Antibiotiques Empiriques Prescris</t>
+          <t>Traitement des données de lab achevé avec succès !</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Patients Transferrés</t>
+          <t>Les données de laboratoire ont été fournies avec succès.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Comorbiditées</t>
+          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Montrer les combinaisons de comorbiditées</t>
+          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hémoculture collectée dans les 24 heures d'admission (CAI) / au début des symptômes (HAI)</t>
+          <t>Langue</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Suivi</t>
+          <t>Charger le fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Résultat Clinique</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Statut des résultats cliniques:</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Jour 28</t>
+          <t>Charger le fichier .acorn sélectionné</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Statut au jour 28:</t>
+          <t>Chargement des données.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Infection du Sang (BSI)</t>
+          <t>Se connecter</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Diagnostic de surveillance initial et final</t>
+          <t>Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
+          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Taux d'occupation des services</t>
+          <t>Aucun fichier .acorn n'a été chargé.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Prévalence des HAI</t>
+          <t>Pas d'Hématoculture</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Microbiologie</t>
+          <t>Pas de connection à internet détecté.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
+          <t>Nombre de specimens par type de specimen</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Contaminants d'Hémoculture</t>
+          <t>Taux d'occupation par type de service et par mois</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Types de Specimen</t>
+          <t>des hémocultures ont générées un contaminant potentiel.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Nombre de specimens par type de specimen</t>
+          <t>des cultures avec croissance.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Résultats de culture par type de spécimen</t>
+          <t>des enrôlements avec hémoculture.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Croissance / Pas de croissance</t>
+          <t>des Pathogènes Cibles</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Isolats</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Les 10 organismes les plus nombreux sont dans le graphique et la liste complète dans la tables. Les contaminants sont en rouge.</t>
+          <t>Aperçu</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Combiner Susceptible + Intermédiaire</t>
+          <t>Mot de passe</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>L'interprétation des taux et profils AMR doit prêter à caution lorsqu'en présence d'un petit nombre de cas ou d'isolats : les estimations sont alors peu fiable.</t>
+          <t>Distribution des ages des patients</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Carbapenems</t>
+          <t>Comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cette organisme n'a pas de données à visualiser</t>
+          <t>Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
+          <t>Patients Transferrés</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Fluoroquinolones</t>
+          <t>Connection</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tous les Autres Organismes</t>
+          <t>Traitement des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G</t>
+          <t>Lecture des données de lab.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
+          <t>Élimine les contaminants d'hémoculture des visualisations ci-dessous</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Evolution de la Résistance aux Oxacillin</t>
+          <t>Réinitialiser les Filtres sur les Enrôlements</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Evolution de la Résistance aux 3rd gen. Cephalosporins</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Réinitialiser les Filtres sur les Enrôlements</t>
+          <t>Evolution de la Résistance aux Carbapenems</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Specimens, Isolates</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Spécimens, Isolats</t>
+          <t>Evolution de la Résistance aux Fluoroquinolones</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Enrôlements</t>
+          <t>Evolution de la Résistance aux Oxacillin</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Avec Microbiologie</t>
+          <t>Evolution de la Résistance aux Penicillin G - meningitis</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Spécimens Recueillis</t>
+          <t>Evolution de la Résistance aux Penicillin G</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>de cultures avec croissance</t>
+          <t>Récupération des données depuis le serveur REDcap.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>des Pathogènes Cibles</t>
+          <t>Sauvegarder un ficher .acorn</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>des enrôlements avec hémoculture.</t>
+          <t>Sauvegarder des données acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Il n'est pas possible de se connecter au server. Veuillez vérifier la connection à internet</t>
+          <t>Sauvegarder sur serveur</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Problème avec la connection internet.</t>
+          <t>Montrer la Répartition par Service</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Problème avec les identifiants. Merci de contacter l'équipe ACORN.</t>
+          <t>Montrer par Semaine</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Select lab data format:</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn sélectionné</t>
+          <t>Choisir le format des données de laboratoire</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Charger le fichier .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>des cultures avec croissance.</t>
+          <t>Montrer les combinaisons de comorbiditées</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>des hémocultures ont générées un contaminant potentiel.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>spécimens par enrôlement</t>
+          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Blood Culture</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hématoculture</t>
+          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Other Specimens:</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Autres Spécimens :</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>No deduplication of isolates</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pas de déduplication des isolats</t>
+          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Deduplication by patient-episode</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Déduplication par patient-épisode</t>
+          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Deduplication by patient ID</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Déduplication par patient ID</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Use heuristic for time unit</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Heuristique pour déterminer l'unité de temps</t>
+          <t>Types de Specimen</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Display by month</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Afficher par mois</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Display by year</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Afficher par année</t>
+          <t>Spécimens Recueillis</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Taux d'occupation par type de service et par mois</t>
+          <t>spécimens par enrôlement</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Prévalence des HAI par service</t>
+          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Le dictionnaire des données de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Chargement des données réalisé avec succès.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
+          <t>Connection réussie.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Les données REDCap n'ont pas pu être télécharger. Merci d'essayer à nouveau.</t>
+          <t>Fichier .acorn sauvegardé sur le serveur. Vous pouvez maintenant explorer les données acorn.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>All records have an ACORN ID.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tous les éléments ont une ACORN ID.</t>
+          <t>Fichier .acorn sauvegardé locallement.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Not all records have an ACORN ID.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Certains éléments n'ont pas d'ACORN ID</t>
+          <t>Fournir en premier lieu des données clinique et de lab valides.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chaque enregistrement D28 (F04) correspond avec exactement un enrôlement de patient (F01).</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Certains enregistrements D28 (F04) n'ont pas un enrôlement de patient (F01) correspondant.</t>
+          <t>Les 10 combinaisons de diagnostic initial-final les plus courantes :</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un épisode infectieux (F02).</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun un épisode infectieux (F02).</t>
+          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A tout enregistrement d'épisode infectieux (F02) correspond un enrôlement de patient (F01)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Certains enregistrements d'épisode infectieux (F02) ne correspondent à aucun enrôlement de patient (F01). Ces enregistrements ont été supprimés.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A tout enregistrement de résultats hospitaliers (F03) correspond un enrôlement de patient (F01)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Certains enregistrements de résultats hospitaliers (F03) ne correspondent à aucun enrôlement de patient (F01)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Toutes les dates d'enrôlements de patients avec une HAI se trouvent dans le jeu de données d'études de HAI.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Certaines dates d'enrôlements de patients avec une HAI ne se trouvent pas dans le jeu de données d'études de HAI.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Les résultats cliniques et du jour 28 sont cohérents.</t>
+          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pour certains patients décédés, les résultats cliniques et du jour 28 ne sont pas cohérents.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>L'âge calculé est cohérent avec la catégorie d'âge.</t>
+          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>L'âge calculé n'est pas toujours cohérent avec la catégorie d'âge.</t>
+          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Il n'y a pas d'isolat avec des résultats d'AST valides.</t>
+          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Les données de laboratoire ont été fournies avec succès.</t>
+          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab contient les colonnes minimales requises.</t>
+          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Le jeu de données de lab ne contient pas les colonnes minimales requises.</t>
+          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tous les 'patid' sont fournis.</t>
+          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'patid' manquant.</t>
+          <t>Il y a une erreur critiqe avec les données cliniques. Cette erreur doit être réparée dans REDCap.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tous les 'specid' sont fournis.</t>
+          <t>Cette organisme n'a pas de données à visualiser</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specid' manquant.</t>
+          <t>Il n'y a pas de données d'enquête HAI</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Tous les 'specdate' sont fournis.</t>
+          <t>Tentative de sauvegarde du fichier .acorn sur serveur.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specdate' manquant.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tous les 'specdate' sont égales ou antérieures à aujourd'hui.</t>
+          <t>Utilisateur</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Il se trouve des enregistrements avec des 'sepcdate' dans le futur.</t>
+          <t>Variables dans la Table:</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tous les 'specgroup' sont fournis.</t>
+          <t>Taux d'occupation des services</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'specgroup' manquant.</t>
+          <t>Le fichier des codes de lab ne peut pas être téléchargé. Merci de contacter l'équipe ACORN.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tous les 'orgname' sont fournis.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Il existe des enregistrements avec des 'orgname' manquant.</t>
+          <t>Bienvenue</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Il n'y as pas de cas atypique (une CAI / HAI très tôt mais pas de simultanéité)</t>
+          <t>Comment voulez-vous procéder ?</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Les 'patient id' suivant sont des cas atypiques (une CAI / HAI très tôt mais pas de simultanéité) :</t>
+          <t>Avec Microbiologie</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Il n'y a pas de cas problématique (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>Problème avec la connection internet.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Les 'patient id' suivant sont des cas problématiques (fenêtre de collection de spécimens qui se chevauchent)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Les données cliniques et de laboratoire ont bien été combinées dans un fichier .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Erreur produite en combinant les données clinique et de laboratoire.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Records in Lab data and BSI forms: </t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
+          <t>Suivez-nous sur Twitter</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Il n'y a pas de données d'enquête HAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Follow us on Twitter</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Suivez-nous sur Twitter</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>No Blood Culture</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Pas d'Hématoculture</t>
+          <t>Enregistrements dans les données de laboratoire et les formulaires BSI:</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_fr.xlsx
+++ b/misc/translations/en_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/ACORN/acorn-dashboard/misc/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC1EAD1-6127-7746-9778-518A8C79B889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26006CD7-9D65-364E-882F-3C1E07A563E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="23500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,9 +436,6 @@
     <t>Info on loaded .acorn</t>
   </si>
   <si>
-    <t>Initial &amp; Final Surveillance Diagnosis</t>
-  </si>
-  <si>
     <t>Diagnostic de surveillance initial et final</t>
   </si>
   <si>
@@ -826,9 +823,6 @@
     <t>Fournir en premier lieu des données clinique et de lab valides.</t>
   </si>
   <si>
-    <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
-  </si>
-  <si>
     <t>The 10 most common initial-final diagnosis combinations:</t>
   </si>
   <si>
@@ -1048,9 +1042,6 @@
     <t>Les « identifiants de patient » suivants sont des cas atypiques (un HCAI/CAI avec HAI précoce mais sans chevauchement) :</t>
   </si>
   <si>
-    <t>Susceptible &amp; Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
-  </si>
-  <si>
     <t>Spécimens</t>
   </si>
   <si>
@@ -1106,6 +1097,15 @@
   </si>
   <si>
     <t>Contient les noms des organismes avant et après cartorgraphie.</t>
+  </si>
+  <si>
+    <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+  </si>
+  <si>
+    <t>Initial and Final Surveillance Diagnosis</t>
+  </si>
+  <si>
+    <t>Susceptible et Intermédiaire sont toujours combinés dans cette visualisation des co-résistances.</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1580,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
         <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1820,7 +1820,7 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1916,7 +1916,7 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2036,7 +2036,7 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2060,7 +2060,7 @@
         <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2092,7 +2092,7 @@
         <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,260 +2100,260 @@
         <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s">
         <v>137</v>
-      </c>
-      <c r="B76" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
         <v>139</v>
-      </c>
-      <c r="B77" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
         <v>142</v>
-      </c>
-      <c r="B79" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
         <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
         <v>146</v>
-      </c>
-      <c r="B81" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
         <v>148</v>
-      </c>
-      <c r="B82" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
         <v>150</v>
-      </c>
-      <c r="B83" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
         <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
         <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
         <v>158</v>
-      </c>
-      <c r="B88" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" t="s">
         <v>160</v>
-      </c>
-      <c r="B89" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
         <v>162</v>
-      </c>
-      <c r="B90" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" t="s">
         <v>164</v>
-      </c>
-      <c r="B91" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
         <v>166</v>
-      </c>
-      <c r="B92" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
         <v>168</v>
-      </c>
-      <c r="B93" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
         <v>170</v>
-      </c>
-      <c r="B94" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" t="s">
         <v>172</v>
-      </c>
-      <c r="B95" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
         <v>174</v>
-      </c>
-      <c r="B96" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" t="s">
         <v>176</v>
-      </c>
-      <c r="B97" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" t="s">
         <v>178</v>
-      </c>
-      <c r="B98" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
-      </c>
-      <c r="B99" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
         <v>182</v>
-      </c>
-      <c r="B100" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" t="s">
         <v>184</v>
-      </c>
-      <c r="B101" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
         <v>187</v>
-      </c>
-      <c r="B103" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" t="s">
         <v>189</v>
-      </c>
-      <c r="B104" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
         <v>191</v>
-      </c>
-      <c r="B105" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="s">
         <v>193</v>
-      </c>
-      <c r="B106" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
         <v>99</v>
@@ -2361,610 +2361,610 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" t="s">
         <v>196</v>
-      </c>
-      <c r="B108" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
         <v>198</v>
-      </c>
-      <c r="B109" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
         <v>200</v>
-      </c>
-      <c r="B110" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
         <v>202</v>
-      </c>
-      <c r="B111" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" t="s">
         <v>205</v>
-      </c>
-      <c r="B113" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
         <v>207</v>
-      </c>
-      <c r="B114" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
         <v>209</v>
-      </c>
-      <c r="B115" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
         <v>211</v>
-      </c>
-      <c r="B116" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" t="s">
         <v>213</v>
-      </c>
-      <c r="B117" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" t="s">
         <v>215</v>
-      </c>
-      <c r="B118" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" t="s">
         <v>217</v>
-      </c>
-      <c r="B119" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
         <v>219</v>
-      </c>
-      <c r="B120" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" t="s">
         <v>221</v>
-      </c>
-      <c r="B121" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" t="s">
         <v>223</v>
-      </c>
-      <c r="B122" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" t="s">
         <v>225</v>
-      </c>
-      <c r="B123" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
         <v>227</v>
-      </c>
-      <c r="B124" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" t="s">
         <v>229</v>
-      </c>
-      <c r="B125" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" t="s">
         <v>231</v>
-      </c>
-      <c r="B126" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
         <v>234</v>
-      </c>
-      <c r="B128" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
         <v>237</v>
-      </c>
-      <c r="B130" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
         <v>239</v>
-      </c>
-      <c r="B131" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" t="s">
         <v>241</v>
-      </c>
-      <c r="B132" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>242</v>
+      </c>
+      <c r="B133" t="s">
         <v>243</v>
-      </c>
-      <c r="B133" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" t="s">
         <v>245</v>
-      </c>
-      <c r="B134" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" t="s">
         <v>248</v>
-      </c>
-      <c r="B136" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B137" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" t="s">
         <v>251</v>
-      </c>
-      <c r="B138" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" t="s">
         <v>253</v>
-      </c>
-      <c r="B139" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" t="s">
         <v>255</v>
-      </c>
-      <c r="B140" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>256</v>
+      </c>
+      <c r="B141" t="s">
         <v>257</v>
-      </c>
-      <c r="B141" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" t="s">
         <v>259</v>
-      </c>
-      <c r="B142" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>260</v>
+      </c>
+      <c r="B143" t="s">
         <v>261</v>
-      </c>
-      <c r="B143" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" t="s">
         <v>263</v>
-      </c>
-      <c r="B144" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>264</v>
+      </c>
+      <c r="B145" t="s">
         <v>265</v>
-      </c>
-      <c r="B145" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B148" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B156" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B158" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B161" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B164" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B165" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B171" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B173" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B175" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B176" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B178" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B181" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B183" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
